--- a/Validation.xlsx
+++ b/Validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\LAWrence-lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29698E1-6CC6-44F5-8FE6-EA2A64B10124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA84F840-8BED-4F5F-B3E7-71780AD49AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4389" yWindow="2166" windowWidth="16589" windowHeight="8502" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="101">
   <si>
     <t>Prompt</t>
   </si>
@@ -398,19 +398,25 @@
     <t xml:space="preserve">Maja Gross kauf sich einen Pullover für CHF 100.-. Nach dem ersten Waschen bemerkt sie, dass sich einige Nähte geöffnet haben. Sie bringt den kaputten Pullover in den Laden zurück. Dort nimmt man den Pullover zurück und die Verkäufern ist bereit Maja Gross einen Gutschein für CHF 100.- auszustellen. Maja Gross möchte aber lieber die CHF 100 in bar zurück und damit etwas anderes machen. </t>
   </si>
   <si>
-    <t>prompt2</t>
-  </si>
-  <si>
-    <t>some prompt here</t>
-  </si>
-  <si>
-    <t>sample prompt here</t>
-  </si>
-  <si>
     <t>gpt-4-1106-preview</t>
   </si>
   <si>
-    <t>gpt-3.5-1106-preview</t>
+    <t>You are a smart and very experienced lawyer in Switzerland. You have a client for whom you need to create an analysis of the legal situation.
+Your task: Based on the situation, the question below, you will create a list of relevant articles and paragraphs that you'll look up. 
+You will always answer in German.
+Your output will always be only a JSON list of relevant law articles along with each relevant paragraph as a JSON in the following structure:
+{{
+    "articles": [
+        {{
+            "article_ref": "OR ART. 27 Abs. 2bis"
+        }}
+        # more articles (if any)
+    ]
+}}
+Legal Situation:
+{situation}
+Legal Question:
+{question}</t>
   </si>
 </sst>
 </file>
@@ -480,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -495,6 +501,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,7 +726,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -757,35 +766,22 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
         <v>99</v>
       </c>
-      <c r="C3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" t="s">
-        <v>103</v>
-      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
+      <c r="A4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Validation.xlsx
+++ b/Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\LAWrence-lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08021C42-774C-4933-8A1F-4A91373F1BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EF3E31-EF10-4CF8-A317-A39419690647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="108">
   <si>
     <t>Prompt</t>
   </si>
@@ -71,15 +71,6 @@
   </si>
   <si>
     <t>G</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>k</t>
   </si>
   <si>
     <t>L</t>
@@ -419,10 +410,34 @@
     <t>BasePrompt2</t>
   </si>
   <si>
-    <t xml:space="preserve">gpt-4-1106-preview	</t>
+    <t>I</t>
   </si>
   <si>
-    <t>gpt-3.5-turbo-1106</t>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>You are a smart and very experienced lawyer in Switzerland. You have a client for whom you need to create an analysis of the legal situation.
+Your task: Based on the situation, the question below, you will create a list of relevant articles and paragraphs that you'll look up. 
+You will always answer in German.
+Your output will always be only a JSON list of relevant law articles along with each relevant paragraph as a JSON in the following structure:
+{{
+    "articles": [
+        {{
+            "article_ref": "OR ART. 27 Abs. 2bis"
+        }}
+        # more articles (if any)
+    ]
+}}
+Legal Situation:
+{situation}
+Legal Question:
+{question}</t>
+  </si>
+  <si>
+    <t>gpt-4-1106-preview</t>
   </si>
 </sst>
 </file>
@@ -497,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -513,6 +528,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,8 +752,8 @@
   </sheetPr>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -793,10 +811,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>12</v>
@@ -807,14 +828,14 @@
       <c r="I2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>17</v>
+      <c r="J2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -822,7 +843,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>107</v>
@@ -837,13 +861,13 @@
         <v>14</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -887,25 +911,25 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -927,10 +951,10 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="8"/>
@@ -953,10 +977,10 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
@@ -979,7 +1003,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1001,17 +1025,17 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1031,16 +1055,16 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="8"/>
@@ -1060,19 +1084,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
@@ -1093,16 +1117,16 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
@@ -1123,19 +1147,19 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1155,19 +1179,19 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1187,19 +1211,19 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7">
         <v>2</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -1219,19 +1243,19 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D12" s="7">
         <v>2</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -1251,19 +1275,19 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D13" s="7">
         <v>2</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1283,19 +1307,19 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D14" s="7">
         <v>2</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -1315,16 +1339,16 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" s="7">
         <v>2</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
@@ -1345,19 +1369,19 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7">
         <v>3</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1377,19 +1401,19 @@
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D17" s="7">
         <v>3</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1409,19 +1433,19 @@
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D18" s="7">
         <v>3</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -1441,19 +1465,19 @@
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D19" s="7">
         <v>3</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -1473,19 +1497,19 @@
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D20" s="7">
         <v>3</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1505,16 +1529,16 @@
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D21" s="7">
         <v>4</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="8"/>
@@ -1535,19 +1559,19 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D22" s="7">
         <v>5</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -1567,19 +1591,19 @@
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D23" s="7">
         <v>5</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -1599,19 +1623,19 @@
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D24" s="7">
         <v>5</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -1631,16 +1655,16 @@
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D25" s="7">
         <v>6</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="8"/>
@@ -1661,19 +1685,19 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D26" s="7">
         <v>7</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -1693,19 +1717,19 @@
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D27" s="7">
         <v>7</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -1725,19 +1749,19 @@
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D28" s="7">
         <v>8</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -1757,16 +1781,16 @@
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D29" s="7">
         <v>8</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
@@ -1787,19 +1811,19 @@
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D30" s="7">
         <v>8</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -1819,19 +1843,19 @@
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D31" s="7">
         <v>8</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -1851,19 +1875,19 @@
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D32" s="7">
         <v>8</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -1883,19 +1907,19 @@
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D33" s="7">
         <v>8</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -1915,16 +1939,16 @@
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D34" s="7">
         <v>9</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="8"/>
@@ -1945,16 +1969,16 @@
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D35" s="7">
         <v>10</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="8"/>

--- a/Validation.xlsx
+++ b/Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\LAWrence-lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EF3E31-EF10-4CF8-A317-A39419690647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E37A8C4-A5C7-43E5-9B4E-AB8706FE3899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="109">
   <si>
     <t>Prompt</t>
   </si>
@@ -439,6 +439,9 @@
   <si>
     <t>gpt-4-1106-preview</t>
   </si>
+  <si>
+    <t xml:space="preserve">gpt-3.5-turbo-1106 </t>
+  </si>
 </sst>
 </file>
 
@@ -752,9 +755,7 @@
   </sheetPr>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -849,7 +850,7 @@
         <v>106</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>12</v>

--- a/Validation.xlsx
+++ b/Validation.xlsx
@@ -551,8 +551,12 @@
           <t>gpt-4-1106-preview</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0.4088402825244931</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.470593149540518</v>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -792,31 +796,26 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>UrhG Art. 13
-ZGB Art. 28 Abs. 2
+          <t>UrhG Art. 28
+OR Art. 62 Abs. 1
+ZGB Art. 28 Abs. 1
+OR Art. 67 Abs. 1
+OR Art. 97 Abs. 1
+ZGB Art. 28a
+UrhG Art. 20
+StGB Art. 31
+UrhG Art. 13
 UrhG Art. 11 Abs. 2
 UrhG Art. 15
-DSG Art. 12
-OR Art. 423 Abs. 1
-ZGB Art. 28 Abs. 1
-ZGB Art. 328
-UrhG Art. 19
-UrhG Art. 20
-OR Art. 19 Abs. 1
-UrhG Art. 36
-UrhG Art. 29
-OR Art. 62 Abs. 1
-ZGB Art. 28a
-DSG Art. 28
-OR Art. 41 Abs. 1
-UrhG Art. 28
-OR Art. 67 Abs. 1
-OR Art. 97 Abs. 1
-DSG Art. 15</t>
+UrhG Art. 19 Abs. 1
+OR Art. 360
+OR Art. 41
+ZGB Art. 328b
+ZGB Art. 28 Abs. 2</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.1</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="M2" t="n">
         <v>0.6666666666666666</v>
@@ -868,10 +867,10 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>OR ART. 185 Abs. 1
+          <t>OR ART. 216 Abs. 1
 OR ART. 197 Abs. 1
 OR ART. 97 Abs. 1
-OR ART. 221 Abs. 1
+OR ART. 185 Abs. 1
 OR ART. 185 Abs. 2</t>
         </is>
       </c>
@@ -933,19 +932,18 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>OR ART. 219 Abs. 1
-OR ART. 185 Abs. 2
+          <t>OR ART. 184 Abs. 1
+OR ART. 245
+OR ART. 237 Abs. 1
 OR ART. 213
-OR ART. 184 Abs. 1
-OR ART. 185 Abs. 1
-OR ART. 216 Abs. 1</t>
+OR ART. 185 Abs. 1</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -1056,17 +1054,18 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BV Art. 38 Abs. 2
+          <t>BV Art. 38 Abs. 3
 BüG Art. 12 Abs. 2
+BV Art. 38 Abs. 2
 BüG Art. 12 Abs. 1
 BV Art. 38 Abs. 1</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -1234,18 +1233,18 @@
       <c r="K6" t="inlineStr">
         <is>
           <t>BGG Art. 100 Abs. 1
-BGG Art. 83
-BGG Art. 89 Abs. 1
-BGG Art. 82 lit. b
+BGG Art. 83 lit. c
+BGG Art. 42 Abs. 1
 BGG Art. 90
-BGG Art. 42 Abs. 1</t>
+BGG Art. 42 Abs. 2
+BGG Art. 106 Abs. 1</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -1387,12 +1386,12 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BGG Art. 106 Abs. 1
+          <t>BGG Art. 95 lit. a
+BV Art. 29 Abs. 1
 BGG Art. 97 Abs. 1
+BV Art. 9
 BGG Art. 42 Abs. 2
-BV Art. 9
-BGG Art. 95 lit. a
-BV Art. 29 Abs. 1</t>
+BGG Art. 106 Abs. 1</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -1475,13 +1474,8 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BüG Art. 14 Abs. 1
-BüG Art. 15 Abs. 1
-BüG Art. 9 Abs. 1
-BüG Art. 16 Abs. 1
-BV Art. 38 Abs. 1
-BüG Art. 11 Abs. 1
-BüG Art. 38 Abs. 2</t>
+          <t>BV Art. 38 Abs. 1
+BV Art. 38 Abs. 2</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -1569,20 +1563,20 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>StGB Art. 123 Ziff. 1 Abs. 1
-StGB Art. 128 Abs. 1
+          <t>StGB Art. 22 Abs. 2
+StGB Art. 13
+StGB Art. 122 Abs. 1
+StGB Art. 22 Abs. 1
 StGB Art. 23 Abs. 1
-StGB Art. 129 Abs. 1
-StGB Art. 22 Abs. 1
-StGB Art. 122 Abs. 1
-StGB Art. 127</t>
+StGB Art. 127
+StGB Art. 263</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1684,9 +1678,22 @@
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>StGB Art. 16
+StGB Art. 122 Abs. 1
+StGB Art. 33
+StGB Art. 32 Abs. 1
+StGB Art. 15
+StGB Art. 127</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.375</v>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
@@ -1747,9 +1754,20 @@
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>OR ART. 330a Abs. 1
+OR ART. 160 Abs. 1
+OR ART. 330a Abs. 3
+OR ART. 160 Abs. 3</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.3333333333333333</v>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
@@ -1802,9 +1820,21 @@
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>OR ART. 327 Abs. 1
+OR ART. 321 Abs. 1
+OR ART. 319 Abs. 1
+OR ART. 328 Abs. 1
+OR ART. 327a</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
@@ -1862,9 +1892,18 @@
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>OR ART. 336c Abs. 1
+OR ART. 335c</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
@@ -1915,9 +1954,18 @@
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>OR ART. 324a Abs. 1
+OR ART. 36 Abs. 3</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.5</v>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
@@ -1968,9 +2016,21 @@
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>OR ART. 340 Abs. 3
+OR ART. 28 Abs. 1
+OR ART. 27 Abs. 1
+OR ART. 340 Abs. 2
+OR ART. 340 Abs. 1</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
@@ -2024,9 +2084,18 @@
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>OR ART. 335c Abs. 1
+OR ART. 335 Abs. 1</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
@@ -2123,9 +2192,28 @@
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>OR ART. 717 Abs. 1
+OR ART. 706a
+OR ART. 706 Abs. 2
+OR ART. 717 Abs. 2
+OR ART. 731b
+ZGB ART. 2
+OR ART. 729 Abs. 1
+OR ART. 697 Abs. 4
+OR ART. 698 Abs. 2
+OR ART. 656a
+OR ART. 723
+OR ART. 660 Abs. 1</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.3</v>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
@@ -2196,9 +2284,26 @@
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>OR ART. 826
+OR ART. 776
+OR ART. 811 Abs. 1
+OR ART. 808
+OR ART. 620 Abs. 1
+OR ART. 764
+OR ART. 809
+OR ART. 552 Abs. 1
+OR ART. 774 Abs. 3
+OR ART. 772 Abs. 1</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.6</v>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
@@ -2292,9 +2397,44 @@
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>OR ART. 814
+OR ART. 627
+OR ART. 772
+OR ART. 811
+OR ART. 643
+OR ART. 640
+OR ART. 781
+OR ART. 645
+OR ART. 778
+OR ART. 810
+OR ART. 621
+OR ART. 815
+OR ART. 776
+OR ART. 808
+OR ART. 773
+OR ART. 629
+OR ART. 779
+OR ART. 823
+OR ART. 764
+OR ART. 809
+OR ART. 770
+OR ART. 626
+OR ART. 620
+OR ART. 622
+OR ART. 822
+OR ART. 813
+OR ART. 780
+OR ART. 821</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
@@ -2400,9 +2540,20 @@
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>OR ART. 754 Abs. 1
+OR ART. 717 Abs. 1
+OR ART. 756 Abs. 1 und 2
+OR ART. 755 Abs. 1</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.375</v>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>

--- a/Validation.xlsx
+++ b/Validation.xlsx
@@ -796,26 +796,40 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>UrhG Art. 28
-OR Art. 62 Abs. 1
-ZGB Art. 28 Abs. 1
-OR Art. 67 Abs. 1
+          <t>UrhG Art. 40
+UrhG Art. 29
+OR Art. 423 Abs. 1
 OR Art. 97 Abs. 1
-ZGB Art. 28a
-UrhG Art. 20
-StGB Art. 31
 UrhG Art. 13
 UrhG Art. 11 Abs. 2
+OR Art. 328
+UrhG Art. 36
+ZGB Art. 28 Abs. 1
 UrhG Art. 15
+UrhG Art. 19 Abs. 2
+UrhG Art. 30
+ZGB Art. 28a Abs. 1
+DSG Art. 12
+OR Art. 41
+UrhG Art. 20
+DSG Art. 4 Abs. 5
+DSG Art. 15
+OR Art. 67 Abs. 2
+OR Art. 62 Abs. 2
+DSG Art. 28
+OR Art. 62 Abs. 1
+ZGB Art. 28 Abs. 2
 UrhG Art. 19 Abs. 1
-OR Art. 360
-OR Art. 41
-ZGB Art. 328b
-ZGB Art. 28 Abs. 2</t>
+ZGB Art. 19
+UrhG Art. 28
+ZGB Art. 28a Abs. 3
+OR Art. 68
+DSG Art. 29
+OR Art. 67 Abs. 1</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="M2" t="n">
         <v>0.6666666666666666</v>
@@ -867,15 +881,15 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>OR ART. 216 Abs. 1
+          <t>OR ART. 97 Abs. 1
+OR ART. 185 Abs. 1
+OR ART. 62 Abs. 1
 OR ART. 197 Abs. 1
-OR ART. 97 Abs. 1
-OR ART. 185 Abs. 1
-OR ART. 185 Abs. 2</t>
+OR ART. 99 Abs. 1</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="M3" t="n">
         <v>0.2</v>
@@ -932,15 +946,17 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>OR ART. 184 Abs. 1
-OR ART. 245
-OR ART. 237 Abs. 1
+          <t>OR ART. 185 Abs. 1
+OR ART. 216 Abs. 1
 OR ART. 213
-OR ART. 185 Abs. 1</t>
+OR ART. 184 Abs. 1
+OR ART. 185 Abs. 2
+OR ART. 243 Abs. 1
+OR ART. 217 Abs. 1</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4" t="n">
         <v>0.25</v>
@@ -1054,11 +1070,9 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BV Art. 38 Abs. 3
-BüG Art. 12 Abs. 2
+          <t>BüG Art. 12 Abs. 1
 BV Art. 38 Abs. 2
-BüG Art. 12 Abs. 1
-BV Art. 38 Abs. 1</t>
+BüG Art. 12 Abs. 2</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -1233,18 +1247,19 @@
       <c r="K6" t="inlineStr">
         <is>
           <t>BGG Art. 100 Abs. 1
-BGG Art. 83 lit. c
+BGG Art. 82 lit. b
+BGG Art. 83
 BGG Art. 42 Abs. 1
-BGG Art. 90
 BGG Art. 42 Abs. 2
-BGG Art. 106 Abs. 1</t>
+BGG Art. 106 Abs. 1
+BGG Art. 90</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -1386,9 +1401,9 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BGG Art. 95 lit. a
+          <t>BGG Art. 97 Abs. 1
 BV Art. 29 Abs. 1
-BGG Art. 97 Abs. 1
+BGG Art. 95 lit. a
 BV Art. 9
 BGG Art. 42 Abs. 2
 BGG Art. 106 Abs. 1</t>

--- a/Validation.xlsx
+++ b/Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\LAWrence-lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C36915-58FD-47A2-9BE5-55403FF1886C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F05DE0-2BE5-4257-913A-AEB71599212D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="107">
   <si>
     <t>Prompt</t>
   </si>
@@ -126,24 +126,6 @@
   </si>
   <si>
     <t>Decisions</t>
-  </si>
-  <si>
-    <t>1-Articles</t>
-  </si>
-  <si>
-    <t>1-Precision</t>
-  </si>
-  <si>
-    <t>1-Recall</t>
-  </si>
-  <si>
-    <t>2-Articles</t>
-  </si>
-  <si>
-    <t>2-Precision</t>
-  </si>
-  <si>
-    <t>2-Recall</t>
   </si>
   <si>
     <t>uni zh 2022</t>
@@ -202,38 +184,6 @@
  Art. 27 Abs. 2 ZGB</t>
   </si>
   <si>
-    <t>UrhG Art. 40
-UrhG Art. 29
-OR Art. 423 Abs. 1
-OR Art. 97 Abs. 1
-UrhG Art. 13
-UrhG Art. 11 Abs. 2
-OR Art. 328
-UrhG Art. 36
-ZGB Art. 28 Abs. 1
-UrhG Art. 15
-UrhG Art. 19 Abs. 2
-UrhG Art. 30
-ZGB Art. 28a Abs. 1
-DSG Art. 12
-OR Art. 41
-UrhG Art. 20
-DSG Art. 4 Abs. 5
-DSG Art. 15
-OR Art. 67 Abs. 2
-OR Art. 62 Abs. 2
-DSG Art. 28
-OR Art. 62 Abs. 1
-ZGB Art. 28 Abs. 2
-UrhG Art. 19 Abs. 1
-ZGB Art. 19
-UrhG Art. 28
-ZGB Art. 28a Abs. 3
-OR Art. 68
-DSG Art. 29
-OR Art. 67 Abs. 1</t>
-  </si>
-  <si>
     <t>Fälle mit Lösungen zum OR</t>
   </si>
   <si>
@@ -250,13 +200,6 @@
  Art. 924 Abs. 1 ZGB
 Art. 184 OR
 Art. 119 Abs. 1 OR</t>
-  </si>
-  <si>
-    <t>OR ART. 97 Abs. 1
-OR ART. 185 Abs. 1
-OR ART. 62 Abs. 1
-OR ART. 197 Abs. 1
-OR ART. 99 Abs. 1</t>
   </si>
   <si>
     <t>Hat A Anspruch gegen B und C auf Bezahlung des Kaufpreises?</t>
@@ -272,15 +215,6 @@
 Art. 462 OR
  Art. 462 Abs. 1 OR
 Art. 641 ZGB</t>
-  </si>
-  <si>
-    <t>OR ART. 185 Abs. 1
-OR ART. 216 Abs. 1
-OR ART. 213
-OR ART. 184 Abs. 1
-OR ART. 185 Abs. 2
-OR ART. 243 Abs. 1
-OR ART. 217 Abs. 1</t>
   </si>
   <si>
     <t>oeffentliches_I_recht_sv_hs22.pdf</t>
@@ -319,6 +253,15 @@
   <si>
     <t>Darf der Kanton X die oben genannten Bestimmungen erlassen? Beantworten
  Sie die Frage im Licht von Art. 38 BV und Art. 12 BüG.</t>
+  </si>
+  <si>
+    <t>Art. 3 i.V.m. Art. 42 BV
+ Art. 38 Abs. 2 BV
+ Art. 49 Abs. 1 BV
+ Art. 12 BüG
+Art. 35 Abs. 2 BüG
+ Art. 12 Abs. 3 BüG
+ Art. 23 EBG</t>
   </si>
   <si>
     <t>Die Kantone verfügen über eine subsidiäre Generalkompetenz, d.h. sie nehmen
@@ -355,11 +298,6 @@
  Fazit: Der Kanton X. darf zusätzliche Einbürgerungskriterien wie in Art.
  11 EBG vorsehen. Eine Bestimmung wie Art. 23 EBG zu erlassen,
  wäre hingegen nicht zulässig.</t>
-  </si>
-  <si>
-    <t>BüG Art. 12 Abs. 1
-BV Art. 38 Abs. 2
-BüG Art. 12 Abs. 2</t>
   </si>
   <si>
     <t>Y möchte den letztinstanzlichen kantonalen Entscheid vom 22. Dez. 2022 beim
@@ -467,15 +405,6 @@
  Verfassungsbeschwerde gemäss Art. 113 ff. BGG von Y. eintreten.</t>
   </si>
   <si>
-    <t>BGG Art. 100 Abs. 1
-BGG Art. 82 lit. b
-BGG Art. 83
-BGG Art. 42 Abs. 1
-BGG Art. 42 Abs. 2
-BGG Art. 106 Abs. 1
-BGG Art. 90</t>
-  </si>
-  <si>
     <t>Gehen Sie davon aus, dass das Bundesgericht auf die Beschwerde von Y. eintritt.
  Y. macht geltend, dass während des Einbürgerungsverfahrens das Willkürverbot
  verletzt worden sei. Wie würde das Bundesgericht entscheiden?</t>
@@ -557,14 +486,6 @@
  Fazit bei entsprechender Argumentation vertretbar.)</t>
   </si>
   <si>
-    <t>BGG Art. 97 Abs. 1
-BV Art. 29 Abs. 1
-BGG Art. 95 lit. a
-BV Art. 9
-BGG Art. 42 Abs. 2
-BGG Art. 106 Abs. 1</t>
-  </si>
-  <si>
     <t>Besteht, wenn alle Einbürgerungsvoraussetzungen erfüllt sind, ein Anspruch auf
  Einbürgerung?</t>
   </si>
@@ -578,10 +499,6 @@
  neuerer bundesgerichtlicher Praxis willkürlich und rechtsungleich,
  eine einbürgerungswillige Person, die alle Einbürgerungsvoraussetzungen
  erfüllt, nicht einzubürgern [1] (BGE 138 I 305, E. 1.4.5; 146 I 49, E. 2.7).</t>
-  </si>
-  <si>
-    <t>BV Art. 38 Abs. 1
-BV Art. 38 Abs. 2</t>
   </si>
   <si>
     <t>strafrecht_I_sv_hs22.pdf</t>
@@ -632,15 +549,6 @@
  K wurde von O mit einem Klappmesser niedergestochen, bevor er seinen Tatplan, ihm «eine Abreibung» zu verpassen, in die Realität umsetzen konnte. Er hat den Schlag noch nicht aus- geführt, weshalb das Vorliegen eines unvollendeten Versuchs zu bejahen ist. Indes war die Vollendung aus Sicht des K nicht mehr mit dem ihm zur Verfügung stehenden Mitteln oder zumindest nicht ohne zeitlich relevante Zäsur zu erreichen, da er aufgrund von Os Stich mit einer lebensgefährlichen Wunde zu Boden stürzte. Somit liegt ein fehlgeschlagener Versuch vor. Zudem hat K nicht aus eigenem Antrieb von der Tatvollendung abgelassen. Daher ist auch die Freiwilligkeit zu verneinen. Der fakultative Strafmilderungsgrund des Rücktritts gemäss Art. 23 Abs. 1 Alt. 1 StGB liegt also nicht vor.
  Schlussfazit: K hat sich einer versuchten einfachen Körperverletzung nach Art. 123 Ziff. 1 Abs. 1 i.V.m. Art. 22 Abs. 1 StGB strafbar gemacht.
  Hinweis: Eine Strafbarkeit wegen Hausfriedensbruch gemäss Art. 186 StGB (vgl. hierzu BGE 108 IV 33, insb. 39 E. 5.a, betreffend Hausfriedensbruch im öffentlich zugänglichen Zür- cher Parkhaus «Talgarten») scheidet mangels Anhaltspunkte auf eine durch das Hausrecht geschützte Fläche aus. Die Auseinandersetzung fand – wie im Sachverhalt ausdrücklich er- wähnt – ausserhalb des Parkhauses, also im Freien, statt.</t>
-  </si>
-  <si>
-    <t>StGB Art. 22 Abs. 2
-StGB Art. 13
-StGB Art. 122 Abs. 1
-StGB Art. 22 Abs. 1
-StGB Art. 23 Abs. 1
-StGB Art. 127
-StGB Art. 263</t>
   </si>
   <si>
     <t>Prüfen Sie gutachterlich die Strafbarkeit von Oliver (O).</t>
@@ -706,14 +614,6 @@
  Schlussfazit: O hat sich nicht der Unterlassung der Nothilfe nach Art. 128 Abs. 1 Alt. 1 StGB strafbar gemacht.</t>
   </si>
   <si>
-    <t>StGB Art. 16
-StGB Art. 122 Abs. 1
-StGB Art. 33
-StGB Art. 32 Abs. 1
-StGB Art. 15
-StGB Art. 127</t>
-  </si>
-  <si>
     <t>arbeitsrecht_(blaw)_sv_fs22.pdf</t>
   </si>
   <si>
@@ -748,12 +648,6 @@
  Lehrbuch Rz 540, 544, 638, 640 ff., 645; BGE 129 III 177; BGE 147 III 78</t>
   </si>
   <si>
-    <t>OR ART. 330a Abs. 1
-OR ART. 160 Abs. 1
-OR ART. 330a Abs. 3
-OR ART. 160 Abs. 3</t>
-  </si>
-  <si>
     <t>D arbeitet seit dem 1. April 2018 als Übersetzerin bei der E AG. Weil im Bürogebäude der E AG ein Umbau ansteht und deshalb die Büros vorübergehend nicht benützt werden können, schlägt die E AG vor, dass D ab Anfang Mai 2021 für rund ein halbes Jahr im Homeoffice arbeitet. Da D zu Hause in ihrer Mietwohnung über ein Arbeitszimmer mit geeigneten Arbeitsgeräten (Notebook und Drucker) verfügt, ist sie damit einverstanden. Zusätzlich stellt D dieses Zimmer auch als Archivraum für zwei grosse Aktenschränke mit Geschäftsunterlagen der E AG zur Verfügung. In einem schriftlichen Zusatz zum Arbeitsvertrag vereinbaren die Parteien, dass D ihre Arbeitsgeräte sowie die Benutzung ihres Arbeitszimmers kostenlos zur Verfügung stellt.</t>
   </si>
   <si>
@@ -769,13 +663,6 @@
     <t>Benutzung der Arbeitsgeräte (Notebook und Drucker): Nach Art. 327 OR (keine genauere Gesetzesangabe notwendig), der dispositiver Natur ist, ist eine Vereinbarung zulässig, wonach der Arbeitnehmer die Arbeitsgeräte stellt; gleiches gilt für den Verzicht auf Kostenbeteiligung durch die Arbeitgeberin; folglich hat D insofern keinen Ersatzanspruch
  - Anders ist die Rechtslage bei den Mietkosten: Nach Art. 327a Abs. 1 OR, der relativ zwingender Natur ist, Art. 362 OR (Angabe des Artikels ohne weitere Unterteilung genügt), hat die Arbeitgeberin zwingend Ersatz für notwendige Auslagen zu leisten; die Benutzung des Arbeitszimmers zugunsten der Arbeitgeberin ist als solche Auslage zu qualifizieren, sodass D Anspruch auf Ersatz hat (keine weitere Aufschlüsselung notwendig, z.B. dass nur anteilmässige Mietkosten übernommen werden müssen); die abweichende Vertragsregelung ist nichtig, Art. 327a Abs. 3 OR
  Lehrbuch Rz 528 ff.; BGE 4A_533/2018 vom 23.4.2019</t>
-  </si>
-  <si>
-    <t>OR ART. 327 Abs. 1
-OR ART. 321 Abs. 1
-OR ART. 319 Abs. 1
-OR ART. 328 Abs. 1
-OR ART. 327a</t>
   </si>
   <si>
     <t>Als D Anfang Juni 2021 gegenüber der E AG Zweifel an der Rechtmässigkeit der Vereinbarung äussert und Kostenersatz fordert, fackelt diese nicht lange: Die E AG spricht am 10. Juni 2021 eine ordentliche Kündigung aus. Wann endet das Arbeitsverhältnis, wenn D vom 20. bis und mit 26. Juni 2021, vom 10. bis und mit 30. Juli 2021 sowie vom
@@ -797,10 +684,6 @@
  Lehrbuch Rz 705 ff.</t>
   </si>
   <si>
-    <t>OR ART. 336c Abs. 1
-OR ART. 335c</t>
-  </si>
-  <si>
     <t>F, Projektleiterin in einem Softwareunternehmen mit Sitz in Zug, hat ein Problem: Ihr Ehemann leidet an einer schweren Lungenentzündung. Er ist zu Hause bettlägerig und bedarf dringend der Pflege.</t>
   </si>
   <si>
@@ -816,10 +699,6 @@
  verhinderung</t>
   </si>
   <si>
-    <t>OR ART. 324a Abs. 1
-OR ART. 36 Abs. 3</t>
-  </si>
-  <si>
     <t>Im schriftlichen Arbeitsvertrag von F findet sich folgende Klausel:
  «Der Mitarbeiterin ist es nach dem Vertragsende untersagt, am Standort Zug Mitarbeitende der Arbeitgeberin abzuwerben.»</t>
   </si>
@@ -833,13 +712,6 @@
     <t>Argument 1: Die Voraussetzungen von Art. 340 ff. OR (auch richtig: Art. 340 OR oder Hinweis auf gesetzliche Bestimmungen zum Konkurrenzverbotsrecht oder ähnlich) gelten für alle nachvertraglichen Einschränkungen der Betätigungsfrei- heit (Einschränkungen oder ähnlich genügt), damit auch für Abwerbeverbote; ein Konkurrenzverbot betreffend den Nachfragemarkt ist unzulässig, was in casu auf die Mitarbeiterabwerbung zutrifft
  - Argument 2: Fehlende zeitliche Begrenzung führt zur Unverbindlichkeit (auch richtig: Nichtigkeit oder ähnlich), sofern sich der Umfang auch nicht durch Auslegung nach Vertrauensprinzip ermitteln lässt (keine weitergehende Herleitung z.B. wegen nicht erfüllter Schriftform notwendig)
  Lehrbuch Rz 825; BGE 130 III 353; BGE 145 III 365</t>
-  </si>
-  <si>
-    <t>OR ART. 340 Abs. 3
-OR ART. 28 Abs. 1
-OR ART. 27 Abs. 1
-OR ART. 340 Abs. 2
-OR ART. 340 Abs. 1</t>
   </si>
   <si>
     <t>G ist bei der H GmbH, einer Weinbar in der Stadt St. Gallen, seit 12 ½ Jahren als Kellner angestellt. Das Geschäftslokal hat die H GmbH gepachtet. Wegen des enttäuschenden Geschäftsverlaufs kündigt die H GmbH den Pachtvertrag mit der Hauseigentümerin fristgerecht auf den 31. Dezember 2021. Neue Pächterin ist die I AG, welche das Lokal am gleichen Ort mit dem vorhandenen Inventar und Mobiliar nahtlos per 1. Januar 2022 übernimmt, allerdings mit einem Schwerpunkt als Whiskeybar. G und die I AG kommen überein, dass G auch unter der neuen Arbeitgeberin in der Bar tätig sein soll. Weil aber G schon in der ersten Arbeitswoche zwei Mal zu spät zur Arbeit erscheint, spricht die I AG bereits am 15. Januar 2022 eine Kündigung mit einer Frist von sieben Tagen aus. Damit ist G nicht einverstanden.</t>
@@ -858,10 +730,6 @@
  - Rechtsfolge: Übergang mit allen Rechten und Pflichten, Art. 333 Abs. 1 OR, damit Anrechnung der bisherigen Dienstjahre; somit maximal zulässige Probezeit von drei Monaten, Art. 335b OR (keine nähere Aufschlüsselung notwendig), die längst abgelaufen ist
  - Damit wäre die Kündigung am 15. Januar 2022, weil sich G im 13. Dienstjahr befindet, nur mit einer Kündigungsfrist von drei Monaten auf den 30. April 2022, möglich, Art. 335c Abs. 1 OR
  Lehrbuch Rz 616 ff.</t>
-  </si>
-  <si>
-    <t>OR ART. 335c Abs. 1
-OR ART. 335 Abs. 1</t>
   </si>
   <si>
     <t>fs22_handels-und wirtschaftsrecht_I_sv_ml_fs22.pdf</t>
@@ -931,20 +799,6 @@
  der Vorzugsdividende</t>
   </si>
   <si>
-    <t>OR ART. 717 Abs. 1
-OR ART. 706a
-OR ART. 706 Abs. 2
-OR ART. 717 Abs. 2
-OR ART. 731b
-ZGB ART. 2
-OR ART. 729 Abs. 1
-OR ART. 697 Abs. 4
-OR ART. 698 Abs. 2
-OR ART. 656a
-OR ART. 723
-OR ART. 660 Abs. 1</t>
-  </si>
-  <si>
     <t>Beatrice, Hans und Jakob gründeten vor einigen Jahren das im Handelsregister eingetragene Beratungsunternehmen «BHJ smart advisors». Der Umsatz des Unternehmens ist seither stetig gestiegen, und es beschäftigt mittlerweile mehrere Dutzend Mitarbeiter. Die Gründer möchten ihre unbeschränkte persönliche Haftung gegenüber Dritten nun ausschliessen und die Gesellschaft für eine weitere Expansion möglichst flexibel aufstellen. Sie möchten nach
  wie vor über wichtige Angelegenheiten der „BHJ smart advisors“ entscheiden können. Für die Zukunft möchten sich die Gründer die Möglichkeit offen behalten, auf dem Kapitalmarkt bei einem breiten Publikum Eigenmittel aufzunehmen. Bis es so weit ist, wollen Beatrice, Hans und Jakob aber sicher gehen, dass ihre Gesellschaft nicht «plötzlich», d.h. unverhofft und ohne Zustimmung, neue Anteilseigner erhält.</t>
   </si>
@@ -978,18 +832,6 @@
  ist der Handelsregistereintrag deklarativ. Handelsregistereintrag, i.c. vorhanden.
  Fazit: Bei der «BHJ smart advisors» handelt es sich um eine
  Kollektivgesellschaft.</t>
-  </si>
-  <si>
-    <t>OR ART. 826
-OR ART. 776
-OR ART. 811 Abs. 1
-OR ART. 808
-OR ART. 620 Abs. 1
-OR ART. 764
-OR ART. 809
-OR ART. 552 Abs. 1
-OR ART. 774 Abs. 3
-OR ART. 772 Abs. 1</t>
   </si>
   <si>
     <t>Zu welchem Rechtsformwechsel raten Sie Beatrice, Hans und Jakob, und welche Voraussetzungen wären zu beachten?</t>
@@ -1044,36 +886,6 @@
  • Wenn die AG zu einem späteren Zeitpunkt ihre Aktien an der Börse kotiert, ist Art. 685d OR zu beachten. Danach muss die AG eine prozentmässige Begrenzung der Namenaktien vorsehen, für die ein Erwerber als Aktionär anerkannt werden muss.
  Fazit: Bei der BHJ smart advisors handelt es sich um eine Kollektivgesellschaft, die in eine AG umgewandelt wird. B, H und J können in den Statuten zudem die Ausgabe von Stimmrechtsaktien vorsehen sowie die Übertragung der Aktien beschränken
  (Vinkulierung). So werden alle ihre Anliegen erfüllt.</t>
-  </si>
-  <si>
-    <t>OR ART. 814
-OR ART. 627
-OR ART. 772
-OR ART. 811
-OR ART. 643
-OR ART. 640
-OR ART. 781
-OR ART. 645
-OR ART. 778
-OR ART. 810
-OR ART. 621
-OR ART. 815
-OR ART. 776
-OR ART. 808
-OR ART. 773
-OR ART. 629
-OR ART. 779
-OR ART. 823
-OR ART. 764
-OR ART. 809
-OR ART. 770
-OR ART. 626
-OR ART. 620
-OR ART. 622
-OR ART. 822
-OR ART. 813
-OR ART. 780
-OR ART. 821</t>
   </si>
   <si>
     <t>3. Die Fleckenfeind AG ist eine Aktiengesellschaft mit Sitz in Zürich, welche nachhaltige Waschmittel in der Schweiz produziert. Anna ist Verwaltungsratsmitglied der Fleckenfeind AG mit Einzelvertretungsbefugnis. In der Vergangenheit war sie oftmals damit betraut, Banküberweisungen für die Fleckenfeind AG auszuführen. Sie handelte dabei jeweils auf Anweisung des Verwaltungsratspräsidenten Gustav. Am 25. April 2018 erhielt Anna folgende E-Mail auf ihre geschäftliche E-Mail-Adresse vom Absender «gustav@fleckenfeind.hk»:
@@ -1144,21 +956,6 @@
  • Décharge: Der GV-Entlastungsbeschluss nach Art. 758 Abs. 1 OR i. V. m. Art. 698 Abs. 2 Ziff. 5 OR (Décharge) liegt gem. Sachverhalt nicht vor.
  Fazit: Die Fleckenfeind AG kann eine Verantwortlichkeitsklage gegen Anna
  erheben.</t>
-  </si>
-  <si>
-    <t>OR ART. 754 Abs. 1
-OR ART. 717 Abs. 1
-OR ART. 756 Abs. 1 und 2
-OR ART. 755 Abs. 1</t>
-  </si>
-  <si>
-    <t>Art. 3 i.V.m. Art. 42 BV
- Art. 38 Abs. 2 BV
- Art. 49 Abs. 1 BV
- Art. 12 BüG
-Art. 35 Abs. 2 BüG
- Art. 12 Abs. 3 BüG
- Art. 23 EBG</t>
   </si>
 </sst>
 </file>
@@ -1219,10 +1016,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1497,10 +1294,10 @@
         <v>14</v>
       </c>
       <c r="E2">
-        <v>0.40884028252449311</v>
+        <v>0.31590434419381791</v>
       </c>
       <c r="F2">
-        <v>0.47059314954051801</v>
+        <v>0.34312865497076023</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -1536,15 +1333,15 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.26953125" defaultRowHeight="47.95" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="29.4" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="15.26953125" style="3"/>
+    <col min="1" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="47.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1575,700 +1372,517 @@
       <c r="J1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="47.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="47.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="47.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="47.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="47.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0.22222222222222221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="47.95" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="47.95" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="47.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="47.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="47.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3">
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="47.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D12" s="3">
         <v>3</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="47.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="47.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="I14" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="47.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D15" s="3">
         <v>4</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="47.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="47.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="47.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D18" s="3">
         <v>2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="47.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D19" s="3">
         <v>2</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="47.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D20" s="3">
         <v>3</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0.375</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Validation.xlsx
+++ b/Validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\LAWrence-lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F05DE0-2BE5-4257-913A-AEB71599212D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF7B705-8FCA-42F5-84BF-4890DAB370F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -62,24 +62,6 @@
     <t>BasePrompt</t>
   </si>
   <si>
-    <t>You are a smart and very experienced lawyer in Switzerland. You have a client for whom you need to create an analysis of the legal situation.
-Your task: Based on the situation, the question below, you will create a list of relevant articles and paragraphs that you'll look up. 
-You will always answer in German.
-Your output will always be only a JSON list of relevant law articles along with each relevant paragraph as a JSON in the following structure:
-{{
-    "articles": [
-        {{
-            "article_ref": "OR ART. 27 Abs. 2bis"
-        }}
-        # more articles (if any)
-    ]
-}}
-Legal Situation:
-{situation}
-Legal Question:
-{question}</t>
-  </si>
-  <si>
     <t>gpt-4-1106-preview</t>
   </si>
   <si>
@@ -93,9 +75,6 @@
   </si>
   <si>
     <t>BasePrompt2</t>
-  </si>
-  <si>
-    <t>gpt-3.5-turbo-0613</t>
   </si>
   <si>
     <t>Num</t>
@@ -957,6 +936,28 @@
  Fazit: Die Fleckenfeind AG kann eine Verantwortlichkeitsklage gegen Anna
  erheben.</t>
   </si>
+  <si>
+    <t>gpt-3.5-turbo-1106</t>
+  </si>
+  <si>
+    <t>You are a smart and very experienced lawyer in Switzerland. You have a client for whom you need to create an analysis of the legal situation.
+Your task: Based on the situation, the question below, you will create a list of relevant articles and paragraphs that you'll look up. 
+You will always answer in German.
+Your output will always be only a JSON list of relevant law articles along with each relevant paragraph as a JSON in the following structure:
+{{
+    "articles": [
+        {{
+            "article_ref": "OR ART. 27 Abs. 2bis"
+        }}
+        # more articles (if any)
+    ]
+}}
+Note that bookname always has to be in the end only.
+Legal Situation:
+{situation}
+Legal Question:
+{question}</t>
+  </si>
 </sst>
 </file>
 
@@ -1010,13 +1011,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1238,11 +1242,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="19.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="21.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1280,47 +1289,53 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2">
+        <v>0.3660714285714286</v>
+      </c>
+      <c r="F2">
+        <v>0.38479532163742691</v>
+      </c>
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="E2">
-        <v>0.31590434419381791</v>
-      </c>
-      <c r="F2">
-        <v>0.34312865497076023</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:12" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>105</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1332,557 +1347,557 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="B1" zoomScale="46" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="29.4" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="22.90625" defaultRowHeight="47.25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="16384" width="22.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="E14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="E16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="E17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="D18" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="E18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="2">
         <v>3</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="3">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>15</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="3">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="3">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="3">
-        <v>5</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>18</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <v>19</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="3">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Validation.xlsx
+++ b/Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\LAWrence-lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF7B705-8FCA-42F5-84BF-4890DAB370F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DAC6ED-898F-4CD3-98E2-08C64AF8EA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,6 +62,25 @@
     <t>BasePrompt</t>
   </si>
   <si>
+    <t>You are a smart and very experienced lawyer in Switzerland. You have a client for whom you need to create an analysis of the legal situation.
+Your task: Based on the situation, the question below, you will create a list of relevant articles and paragraphs that you'll look up. 
+You will always answer in German.
+Your output will always be only a JSON list of relevant law articles along with each relevant paragraph as a JSON in the following structure:
+{{
+    "articles": [
+        {{
+            "article_ref": "OR ART. 27 Abs. 2bis"
+        }}
+        # more articles (if any)
+    ]
+}}
+Note that bookname always has to be in the end only.
+Legal Situation:
+{situation}
+Legal Question:
+{question}</t>
+  </si>
+  <si>
     <t>gpt-4-1106-preview</t>
   </si>
   <si>
@@ -75,6 +94,9 @@
   </si>
   <si>
     <t>BasePrompt2</t>
+  </si>
+  <si>
+    <t>gpt-3.5-turbo-1106</t>
   </si>
   <si>
     <t>Num</t>
@@ -936,28 +958,6 @@
  Fazit: Die Fleckenfeind AG kann eine Verantwortlichkeitsklage gegen Anna
  erheben.</t>
   </si>
-  <si>
-    <t>gpt-3.5-turbo-1106</t>
-  </si>
-  <si>
-    <t>You are a smart and very experienced lawyer in Switzerland. You have a client for whom you need to create an analysis of the legal situation.
-Your task: Based on the situation, the question below, you will create a list of relevant articles and paragraphs that you'll look up. 
-You will always answer in German.
-Your output will always be only a JSON list of relevant law articles along with each relevant paragraph as a JSON in the following structure:
-{{
-    "articles": [
-        {{
-            "article_ref": "OR ART. 27 Abs. 2bis"
-        }}
-        # more articles (if any)
-    ]
-}}
-Note that bookname always has to be in the end only.
-Legal Situation:
-{situation}
-Legal Question:
-{question}</t>
-  </si>
 </sst>
 </file>
 
@@ -1011,16 +1011,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1243,100 +1240,98 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="21.6328125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="23.8" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="23.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:12" ht="23.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2">
-        <v>0.3660714285714286</v>
-      </c>
-      <c r="F2">
-        <v>0.38479532163742691</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="L2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="23.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1345,559 +1340,559 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="46" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.90625" defaultRowHeight="47.25" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="27.65" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="22.90625" style="2"/>
+    <col min="1" max="10" width="8.7265625" style="3"/>
+    <col min="11" max="11" width="54.90625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
         <v>18</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-    </row>
-    <row r="2" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="B20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="D20" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="2">
-        <v>4</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="2">
-        <v>4</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="2">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="G20" s="3" t="s">
         <v>104</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
